--- a/results/FrequencyTables/26581162_sg373R.xlsx
+++ b/results/FrequencyTables/26581162_sg373R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0090293453724605</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00526711813393529</v>
       </c>
       <c r="E2">
-        <v>0.0105263157894737</v>
+        <v>0.00752445447705041</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00526711813393529</v>
       </c>
       <c r="H2">
-        <v>0.989473684210526</v>
+        <v>0.936794582392777</v>
       </c>
       <c r="I2">
-        <v>0.0105263157894737</v>
+        <v>0.00526711813393529</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0090293453724605</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.867569601203913</v>
       </c>
       <c r="M2">
-        <v>0.0105263157894737</v>
+        <v>0.151241534988713</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0353649360421369</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0112866817155756</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0090293453724605</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0127915726109857</v>
       </c>
       <c r="S2">
-        <v>0.0736842105263158</v>
+        <v>0.09104589917231</v>
       </c>
       <c r="T2">
-        <v>0.0105263157894737</v>
+        <v>0.0737396538750941</v>
       </c>
       <c r="U2">
-        <v>0.0421052631578947</v>
+        <v>0.018058690744921</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="W2">
-        <v>0.0105263157894737</v>
+        <v>0.0158013544018059</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0090293453724605</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,22 +539,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.989473684210526</v>
+        <v>0.973664409330323</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00225733634311512</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00677200902934537</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.99849510910459</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.99398043641836</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0135440180586907</v>
       </c>
       <c r="O3">
-        <v>0.694736842105263</v>
+        <v>0.528216704288939</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.124153498871332</v>
       </c>
       <c r="Q3">
-        <v>0.0526315789473684</v>
+        <v>0.0684725357411588</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00827689992475546</v>
       </c>
       <c r="S3">
-        <v>0.0105263157894737</v>
+        <v>0.00752445447705041</v>
       </c>
       <c r="T3">
-        <v>0.978947368421053</v>
+        <v>0.735891647855531</v>
       </c>
       <c r="U3">
-        <v>0.957894736842105</v>
+        <v>0.929270127915726</v>
       </c>
       <c r="V3">
-        <v>0.0105263157894737</v>
+        <v>0.188863807373965</v>
       </c>
       <c r="W3">
-        <v>0.0105263157894737</v>
+        <v>0.0353649360421369</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00677200902934537</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0105263157894737</v>
+        <v>0.00451467268623025</v>
       </c>
       <c r="C4">
-        <v>0.0105263157894737</v>
+        <v>0.0120391271632807</v>
       </c>
       <c r="D4">
-        <v>0.0105263157894737</v>
+        <v>0.0112866817155756</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0112866817155756</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="H4">
-        <v>0.0105263157894737</v>
+        <v>0.0564334085778781</v>
       </c>
       <c r="I4">
-        <v>0.989473684210526</v>
+        <v>0.99097065462754</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.996237772761475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.990218209179834</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.126410835214447</v>
       </c>
       <c r="M4">
-        <v>0.989473684210526</v>
+        <v>0.840481565086531</v>
       </c>
       <c r="N4">
-        <v>0.989473684210526</v>
+        <v>0.947328818660647</v>
       </c>
       <c r="O4">
-        <v>0.0105263157894737</v>
+        <v>0.18660647103085</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.838976674191121</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.161775771256584</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.826937547027841</v>
       </c>
       <c r="S4">
-        <v>0.91578947368421</v>
+        <v>0.862302483069977</v>
       </c>
       <c r="T4">
-        <v>0.0105263157894737</v>
+        <v>0.155756207674944</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.036117381489842</v>
       </c>
       <c r="V4">
-        <v>0.0105263157894737</v>
+        <v>0.0285929270127916</v>
       </c>
       <c r="W4">
-        <v>0.978947368421053</v>
+        <v>0.798344620015049</v>
       </c>
       <c r="X4">
-        <v>0.989473684210526</v>
+        <v>0.948833709556057</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0127915726109857</v>
       </c>
       <c r="C5">
-        <v>0.989473684210526</v>
+        <v>0.986455981941309</v>
       </c>
       <c r="D5">
-        <v>0.989473684210526</v>
+        <v>0.981188863807374</v>
       </c>
       <c r="E5">
-        <v>0.989473684210526</v>
+        <v>0.974416854778029</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00677200902934537</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000752445447705041</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00225733634311512</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00451467268623025</v>
       </c>
       <c r="N5">
-        <v>0.0105263157894737</v>
+        <v>0.00376222723852521</v>
       </c>
       <c r="O5">
-        <v>0.294736842105263</v>
+        <v>0.27313769751693</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0331075996990218</v>
       </c>
       <c r="Q5">
-        <v>0.947368421052632</v>
+        <v>0.760722347629797</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.151993980436418</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0391271632806622</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0338600451467269</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0158013544018059</v>
       </c>
       <c r="V5">
-        <v>0.978947368421053</v>
+        <v>0.778781038374718</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.150489089541008</v>
       </c>
       <c r="X5">
-        <v>0.0105263157894737</v>
+        <v>0.0353649360421369</v>
       </c>
     </row>
   </sheetData>
